--- a/docs/template/测试用例模版.xlsx
+++ b/docs/template/测试用例模版.xlsx
@@ -1,242 +1,193 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="13740"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowHeight="13740" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>用例标签</t>
-  </si>
-  <si>
-    <t>用例名称</t>
-  </si>
-  <si>
-    <t>前置条件</t>
-  </si>
-  <si>
-    <t>操作步骤</t>
-  </si>
-  <si>
-    <t>预期结果</t>
-  </si>
-  <si>
-    <t>优先级</t>
-  </si>
-  <si>
-    <t>运营位</t>
-  </si>
-  <si>
-    <t>包名下发验证，正常展示</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、运营位包名配置测试包名：xxxx
-2、其他配置正常填入
-</t>
-  </si>
-  <si>
-    <t>1、重启获取配置
-2、测试包xxxx进入对应页面</t>
-  </si>
-  <si>
-    <t>页面按照配置正确显示对应的UI元素，并且根据触发模式和优先级展示正确的提示信息。</t>
-  </si>
-  <si>
-    <t>P0</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="23">
     <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+    </font>
+    <font>
       <name val="PingFang SC Regular"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11"/>
+    </font>
+    <font>
       <name val="PingFang SC Regular"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
       <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
       <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -552,166 +503,166 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -767,11 +718,74 @@
     <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1031,213 +1045,242 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F139"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="16.8" outlineLevelCol="5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.859375" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="15.859375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="37.3671875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="38.5390625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="39.1875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="45.4375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="30.859375" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="8.859375" style="3" customWidth="1"/>
+    <col width="15.859375" customWidth="1" style="3" min="1" max="1"/>
+    <col width="37.3671875" customWidth="1" style="3" min="2" max="2"/>
+    <col width="38.5390625" customWidth="1" style="3" min="3" max="3"/>
+    <col width="39.1875" customWidth="1" style="3" min="4" max="4"/>
+    <col width="45.4375" customWidth="1" style="3" min="5" max="5"/>
+    <col width="15.5703125" customWidth="1" style="3" min="6" max="6"/>
+    <col width="30.859375" customWidth="1" style="3" min="7" max="7"/>
+    <col width="8.859375" customWidth="1" style="3" min="8" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="28" customHeight="1" spans="1:6">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
+    <row r="1" ht="28" customFormat="1" customHeight="1" s="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>用例标签</t>
+        </is>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>用例名称</t>
+        </is>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
+      <c r="C1" s="4" t="inlineStr">
+        <is>
+          <t>前置条件</t>
+        </is>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>操作步骤</t>
+        </is>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>预期结果</t>
+        </is>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
+      <c r="F1" s="5" t="inlineStr">
+        <is>
+          <t>优先级</t>
+        </is>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="51" customHeight="1" spans="1:6">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
+    <row r="2" ht="51" customFormat="1" customHeight="1" s="1">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>运营位</t>
+        </is>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>包名下发验证，正常展示</t>
+        </is>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1、运营位包名配置测试包名：xxxx
+2、其他配置正常填入
+</t>
+        </is>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>1、重启获取配置
+2、测试包xxxx进入对应页面</t>
+        </is>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>页面按照配置正确显示对应的UI元素，并且根据触发模式和优先级展示正确的提示信息。</t>
+        </is>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>P0</t>
+        </is>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1"/>
-    <row r="4" s="2" customFormat="1"/>
-    <row r="5" s="2" customFormat="1"/>
-    <row r="6" s="2" customFormat="1"/>
-    <row r="7" s="2" customFormat="1"/>
-    <row r="8" s="2" customFormat="1"/>
-    <row r="9" s="2" customFormat="1"/>
-    <row r="10" s="2" customFormat="1"/>
-    <row r="11" s="2" customFormat="1"/>
-    <row r="12" s="2" customFormat="1"/>
-    <row r="13" s="2" customFormat="1"/>
-    <row r="14" s="2" customFormat="1"/>
-    <row r="15" s="2" customFormat="1"/>
-    <row r="16" s="2" customFormat="1"/>
-    <row r="17" s="2" customFormat="1"/>
-    <row r="18" s="2" customFormat="1"/>
-    <row r="19" s="2" customFormat="1"/>
-    <row r="20" s="2" customFormat="1"/>
-    <row r="21" s="2" customFormat="1"/>
-    <row r="22" s="2" customFormat="1"/>
-    <row r="23" s="2" customFormat="1"/>
-    <row r="24" s="2" customFormat="1"/>
-    <row r="25" s="2" customFormat="1"/>
-    <row r="26" s="2" customFormat="1"/>
-    <row r="27" s="2" customFormat="1"/>
-    <row r="28" s="2" customFormat="1"/>
-    <row r="29" s="2" customFormat="1"/>
-    <row r="30" s="2" customFormat="1"/>
-    <row r="31" s="2" customFormat="1"/>
-    <row r="32" s="2" customFormat="1"/>
-    <row r="33" s="2" customFormat="1"/>
-    <row r="34" s="2" customFormat="1"/>
-    <row r="35" s="2" customFormat="1"/>
-    <row r="36" s="2" customFormat="1"/>
-    <row r="37" s="2" customFormat="1"/>
-    <row r="38" s="2" customFormat="1"/>
-    <row r="39" s="2" customFormat="1"/>
-    <row r="40" s="2" customFormat="1"/>
-    <row r="41" s="2" customFormat="1"/>
-    <row r="42" s="2" customFormat="1"/>
-    <row r="43" s="2" customFormat="1"/>
-    <row r="44" s="2" customFormat="1"/>
-    <row r="45" s="2" customFormat="1"/>
-    <row r="46" s="2" customFormat="1"/>
-    <row r="47" s="2" customFormat="1"/>
-    <row r="48" s="2" customFormat="1"/>
-    <row r="49" s="2" customFormat="1"/>
-    <row r="50" s="2" customFormat="1"/>
-    <row r="51" s="2" customFormat="1"/>
-    <row r="52" s="2" customFormat="1"/>
-    <row r="53" s="2" customFormat="1"/>
-    <row r="54" s="2" customFormat="1"/>
-    <row r="55" s="2" customFormat="1"/>
-    <row r="56" s="2" customFormat="1"/>
-    <row r="57" s="2" customFormat="1"/>
-    <row r="58" s="2" customFormat="1"/>
-    <row r="59" s="2" customFormat="1"/>
-    <row r="60" s="2" customFormat="1"/>
-    <row r="61" s="2" customFormat="1"/>
-    <row r="62" s="2" customFormat="1"/>
-    <row r="63" s="2" customFormat="1"/>
-    <row r="64" s="2" customFormat="1"/>
-    <row r="65" s="2" customFormat="1"/>
-    <row r="66" s="2" customFormat="1"/>
-    <row r="67" s="2" customFormat="1"/>
-    <row r="68" s="2" customFormat="1"/>
-    <row r="69" s="2" customFormat="1"/>
-    <row r="70" s="2" customFormat="1"/>
-    <row r="71" s="2" customFormat="1"/>
-    <row r="72" s="2" customFormat="1"/>
-    <row r="73" s="2" customFormat="1"/>
-    <row r="74" s="2" customFormat="1"/>
-    <row r="75" s="2" customFormat="1"/>
-    <row r="76" s="2" customFormat="1"/>
-    <row r="77" s="2" customFormat="1"/>
-    <row r="78" s="2" customFormat="1"/>
-    <row r="79" s="2" customFormat="1"/>
-    <row r="80" s="2" customFormat="1"/>
-    <row r="81" s="2" customFormat="1"/>
-    <row r="82" s="2" customFormat="1"/>
-    <row r="83" s="2" customFormat="1"/>
-    <row r="84" s="2" customFormat="1"/>
-    <row r="85" s="2" customFormat="1"/>
-    <row r="86" s="2" customFormat="1"/>
-    <row r="87" s="2" customFormat="1"/>
-    <row r="88" s="2" customFormat="1"/>
-    <row r="89" s="2" customFormat="1"/>
-    <row r="90" s="2" customFormat="1"/>
-    <row r="91" s="2" customFormat="1"/>
-    <row r="92" s="2" customFormat="1"/>
-    <row r="93" s="2" customFormat="1"/>
-    <row r="94" s="2" customFormat="1"/>
-    <row r="95" s="2" customFormat="1"/>
-    <row r="96" s="2" customFormat="1"/>
-    <row r="97" s="2" customFormat="1"/>
-    <row r="98" s="2" customFormat="1"/>
-    <row r="99" s="2" customFormat="1"/>
-    <row r="100" s="2" customFormat="1"/>
-    <row r="101" s="2" customFormat="1"/>
-    <row r="102" s="2" customFormat="1"/>
-    <row r="103" s="2" customFormat="1"/>
-    <row r="104" s="2" customFormat="1"/>
-    <row r="105" s="2" customFormat="1"/>
-    <row r="106" s="2" customFormat="1"/>
-    <row r="107" s="2" customFormat="1"/>
-    <row r="108" s="2" customFormat="1"/>
-    <row r="109" s="2" customFormat="1"/>
-    <row r="110" s="2" customFormat="1"/>
-    <row r="111" s="2" customFormat="1"/>
-    <row r="112" s="2" customFormat="1"/>
-    <row r="113" s="2" customFormat="1"/>
-    <row r="114" s="2" customFormat="1"/>
-    <row r="115" s="2" customFormat="1"/>
-    <row r="116" s="2" customFormat="1"/>
-    <row r="117" s="2" customFormat="1"/>
-    <row r="118" s="2" customFormat="1"/>
-    <row r="119" s="2" customFormat="1"/>
-    <row r="120" s="2" customFormat="1"/>
-    <row r="121" s="2" customFormat="1"/>
-    <row r="122" s="2" customFormat="1"/>
-    <row r="123" s="2" customFormat="1"/>
-    <row r="124" s="2" customFormat="1"/>
-    <row r="125" s="2" customFormat="1"/>
-    <row r="126" s="2" customFormat="1"/>
-    <row r="127" s="2" customFormat="1"/>
-    <row r="128" s="2" customFormat="1"/>
-    <row r="129" s="2" customFormat="1"/>
-    <row r="130" s="2" customFormat="1"/>
-    <row r="131" s="2" customFormat="1"/>
-    <row r="132" s="2" customFormat="1"/>
-    <row r="133" s="2" customFormat="1"/>
-    <row r="134" s="2" customFormat="1"/>
-    <row r="135" s="2" customFormat="1"/>
-    <row r="136" s="2" customFormat="1"/>
-    <row r="137" s="2" customFormat="1"/>
-    <row r="138" s="2" customFormat="1"/>
-    <row r="139" s="2" customFormat="1"/>
+    <row r="3" customFormat="1" s="2"/>
+    <row r="4" customFormat="1" s="2"/>
+    <row r="5" customFormat="1" s="2"/>
+    <row r="6" customFormat="1" s="2"/>
+    <row r="7" customFormat="1" s="2"/>
+    <row r="8" customFormat="1" s="2"/>
+    <row r="9" customFormat="1" s="2"/>
+    <row r="10" customFormat="1" s="2"/>
+    <row r="11" customFormat="1" s="2"/>
+    <row r="12" customFormat="1" s="2"/>
+    <row r="13" customFormat="1" s="2"/>
+    <row r="14" customFormat="1" s="2"/>
+    <row r="15" customFormat="1" s="2"/>
+    <row r="16" customFormat="1" s="2"/>
+    <row r="17" customFormat="1" s="2"/>
+    <row r="18" customFormat="1" s="2"/>
+    <row r="19" customFormat="1" s="2"/>
+    <row r="20" customFormat="1" s="2"/>
+    <row r="21" customFormat="1" s="2"/>
+    <row r="22" customFormat="1" s="2"/>
+    <row r="23" customFormat="1" s="2"/>
+    <row r="24" customFormat="1" s="2"/>
+    <row r="25" customFormat="1" s="2"/>
+    <row r="26" customFormat="1" s="2"/>
+    <row r="27" customFormat="1" s="2"/>
+    <row r="28" customFormat="1" s="2"/>
+    <row r="29" customFormat="1" s="2"/>
+    <row r="30" customFormat="1" s="2"/>
+    <row r="31" customFormat="1" s="2"/>
+    <row r="32" customFormat="1" s="2"/>
+    <row r="33" customFormat="1" s="2"/>
+    <row r="34" customFormat="1" s="2"/>
+    <row r="35" customFormat="1" s="2"/>
+    <row r="36" customFormat="1" s="2"/>
+    <row r="37" customFormat="1" s="2"/>
+    <row r="38" customFormat="1" s="2"/>
+    <row r="39" customFormat="1" s="2"/>
+    <row r="40" customFormat="1" s="2"/>
+    <row r="41" customFormat="1" s="2"/>
+    <row r="42" customFormat="1" s="2"/>
+    <row r="43" customFormat="1" s="2"/>
+    <row r="44" customFormat="1" s="2"/>
+    <row r="45" customFormat="1" s="2"/>
+    <row r="46" customFormat="1" s="2"/>
+    <row r="47" customFormat="1" s="2"/>
+    <row r="48" customFormat="1" s="2"/>
+    <row r="49" customFormat="1" s="2"/>
+    <row r="50" customFormat="1" s="2"/>
+    <row r="51" customFormat="1" s="2"/>
+    <row r="52" customFormat="1" s="2"/>
+    <row r="53" customFormat="1" s="2"/>
+    <row r="54" customFormat="1" s="2"/>
+    <row r="55" customFormat="1" s="2"/>
+    <row r="56" customFormat="1" s="2"/>
+    <row r="57" customFormat="1" s="2"/>
+    <row r="58" customFormat="1" s="2"/>
+    <row r="59" customFormat="1" s="2"/>
+    <row r="60" customFormat="1" s="2"/>
+    <row r="61" customFormat="1" s="2"/>
+    <row r="62" customFormat="1" s="2"/>
+    <row r="63" customFormat="1" s="2"/>
+    <row r="64" customFormat="1" s="2"/>
+    <row r="65" customFormat="1" s="2"/>
+    <row r="66" customFormat="1" s="2"/>
+    <row r="67" customFormat="1" s="2"/>
+    <row r="68" customFormat="1" s="2"/>
+    <row r="69" customFormat="1" s="2"/>
+    <row r="70" customFormat="1" s="2"/>
+    <row r="71" customFormat="1" s="2"/>
+    <row r="72" customFormat="1" s="2"/>
+    <row r="73" customFormat="1" s="2"/>
+    <row r="74" customFormat="1" s="2"/>
+    <row r="75" customFormat="1" s="2"/>
+    <row r="76" customFormat="1" s="2"/>
+    <row r="77" customFormat="1" s="2"/>
+    <row r="78" customFormat="1" s="2"/>
+    <row r="79" customFormat="1" s="2"/>
+    <row r="80" customFormat="1" s="2"/>
+    <row r="81" customFormat="1" s="2"/>
+    <row r="82" customFormat="1" s="2"/>
+    <row r="83" customFormat="1" s="2"/>
+    <row r="84" customFormat="1" s="2"/>
+    <row r="85" customFormat="1" s="2"/>
+    <row r="86" customFormat="1" s="2"/>
+    <row r="87" customFormat="1" s="2"/>
+    <row r="88" customFormat="1" s="2"/>
+    <row r="89" customFormat="1" s="2"/>
+    <row r="90" customFormat="1" s="2"/>
+    <row r="91" customFormat="1" s="2"/>
+    <row r="92" customFormat="1" s="2"/>
+    <row r="93" customFormat="1" s="2"/>
+    <row r="94" customFormat="1" s="2"/>
+    <row r="95" customFormat="1" s="2"/>
+    <row r="96" customFormat="1" s="2"/>
+    <row r="97" customFormat="1" s="2"/>
+    <row r="98" customFormat="1" s="2"/>
+    <row r="99" customFormat="1" s="2"/>
+    <row r="100" customFormat="1" s="2"/>
+    <row r="101" customFormat="1" s="2"/>
+    <row r="102" customFormat="1" s="2"/>
+    <row r="103" customFormat="1" s="2"/>
+    <row r="104" customFormat="1" s="2"/>
+    <row r="105" customFormat="1" s="2"/>
+    <row r="106" customFormat="1" s="2"/>
+    <row r="107" customFormat="1" s="2"/>
+    <row r="108" customFormat="1" s="2"/>
+    <row r="109" customFormat="1" s="2"/>
+    <row r="110" customFormat="1" s="2"/>
+    <row r="111" customFormat="1" s="2"/>
+    <row r="112" customFormat="1" s="2"/>
+    <row r="113" customFormat="1" s="2"/>
+    <row r="114" customFormat="1" s="2"/>
+    <row r="115" customFormat="1" s="2"/>
+    <row r="116" customFormat="1" s="2"/>
+    <row r="117" customFormat="1" s="2"/>
+    <row r="118" customFormat="1" s="2"/>
+    <row r="119" customFormat="1" s="2"/>
+    <row r="120" customFormat="1" s="2"/>
+    <row r="121" customFormat="1" s="2"/>
+    <row r="122" customFormat="1" s="2"/>
+    <row r="123" customFormat="1" s="2"/>
+    <row r="124" customFormat="1" s="2"/>
+    <row r="125" customFormat="1" s="2"/>
+    <row r="126" customFormat="1" s="2"/>
+    <row r="127" customFormat="1" s="2"/>
+    <row r="128" customFormat="1" s="2"/>
+    <row r="129" customFormat="1" s="2"/>
+    <row r="130" customFormat="1" s="2"/>
+    <row r="131" customFormat="1" s="2"/>
+    <row r="132" customFormat="1" s="2"/>
+    <row r="133" customFormat="1" s="2"/>
+    <row r="134" customFormat="1" s="2"/>
+    <row r="135" customFormat="1" s="2"/>
+    <row r="136" customFormat="1" s="2"/>
+    <row r="137" customFormat="1" s="2"/>
+    <row r="138" customFormat="1" s="2"/>
+    <row r="139" customFormat="1" s="2"/>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F3:F1048576">
+    <dataValidation sqref="F3:F1048576" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"P0,P1"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
+    <dataValidation sqref="F2" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"P0,P1,P2,P3,P4"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/docs/template/测试用例模版.xlsx
+++ b/docs/template/测试用例模版.xlsx
@@ -1,242 +1,193 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="13620"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="30240" windowHeight="13620" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>用例标签</t>
-  </si>
-  <si>
-    <t>用例名称</t>
-  </si>
-  <si>
-    <t>前置条件</t>
-  </si>
-  <si>
-    <t>操作步骤</t>
-  </si>
-  <si>
-    <t>预期结果</t>
-  </si>
-  <si>
-    <t>优先级</t>
-  </si>
-  <si>
-    <t>运营位</t>
-  </si>
-  <si>
-    <t>包名下发验证，正常展示</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、运营位包名配置测试包名：xxxx
-2、其他配置正常填入
-</t>
-  </si>
-  <si>
-    <t>1、重启获取配置
-2、测试包xxxx进入对应页面</t>
-  </si>
-  <si>
-    <t>页面按照配置正确显示对应的UI元素，并且根据触发模式和优先级展示正确的提示信息。</t>
-  </si>
-  <si>
-    <t>P0</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="23">
     <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+    </font>
+    <font>
       <name val="PingFang SC Regular"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11"/>
+    </font>
+    <font>
       <name val="PingFang SC Regular"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
       <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <b val="1"/>
       <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -552,169 +503,169 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -770,11 +721,74 @@
     <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1034,321 +1048,350 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F139"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
+      <selection activeCell="A1" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="16.8" outlineLevelCol="5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.859375" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="15.859375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="37.3671875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="38.5390625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="39.1875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="45.4375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="30.859375" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="8.859375" style="3" customWidth="1"/>
+    <col width="15.859375" customWidth="1" style="3" min="1" max="1"/>
+    <col width="37.3671875" customWidth="1" style="3" min="2" max="2"/>
+    <col width="38.5390625" customWidth="1" style="3" min="3" max="3"/>
+    <col width="39.1875" customWidth="1" style="3" min="4" max="4"/>
+    <col width="45.4375" customWidth="1" style="3" min="5" max="5"/>
+    <col width="15.5703125" customWidth="1" style="3" min="6" max="6"/>
+    <col width="30.859375" customWidth="1" style="3" min="7" max="7"/>
+    <col width="8.859375" customWidth="1" style="3" min="8" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="28" customHeight="1" spans="1:6">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
+    <row r="1" ht="28" customFormat="1" customHeight="1" s="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>用例标签</t>
+        </is>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>用例名称</t>
+        </is>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
+      <c r="C1" s="4" t="inlineStr">
+        <is>
+          <t>前置条件</t>
+        </is>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>操作步骤</t>
+        </is>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>预期结果</t>
+        </is>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
+      <c r="F1" s="5" t="inlineStr">
+        <is>
+          <t>优先级</t>
+        </is>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="51" customHeight="1" spans="1:6">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
+    <row r="2" ht="51" customFormat="1" customHeight="1" s="1">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>运营位</t>
+        </is>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>包名下发验证，正常展示</t>
+        </is>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1、运营位包名配置测试包名：xxxx
+2、其他配置正常填入
+</t>
+        </is>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>1、重启获取配置
+2、测试包xxxx进入对应页面</t>
+        </is>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>页面按照配置正确显示对应的UI元素，并且根据触发模式和优先级展示正确的提示信息。</t>
+        </is>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>P0</t>
+        </is>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="6:6">
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4" s="2" customFormat="1" spans="6:6">
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" s="2" customFormat="1" spans="6:6">
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" s="2" customFormat="1" spans="6:6">
-      <c r="F6" s="6"/>
-    </row>
-    <row r="7" s="2" customFormat="1" spans="6:6">
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" s="2" customFormat="1" spans="6:6">
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" s="2" customFormat="1" spans="6:6">
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" s="2" customFormat="1" spans="6:6">
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" s="2" customFormat="1" spans="6:6">
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" s="2" customFormat="1" spans="6:6">
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" s="2" customFormat="1" spans="6:6">
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" s="2" customFormat="1" spans="6:6">
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" s="2" customFormat="1" spans="6:6">
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" s="2" customFormat="1" spans="6:6">
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" s="2" customFormat="1" spans="6:6">
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" s="2" customFormat="1" spans="6:6">
-      <c r="F18" s="6"/>
-    </row>
-    <row r="19" s="2" customFormat="1" spans="6:6">
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" s="2" customFormat="1" spans="6:6">
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" s="2" customFormat="1" spans="6:6">
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" s="2" customFormat="1" spans="6:6">
-      <c r="F22" s="6"/>
-    </row>
-    <row r="23" s="2" customFormat="1" spans="6:6">
-      <c r="F23" s="6"/>
-    </row>
-    <row r="24" s="2" customFormat="1" spans="6:6">
-      <c r="F24" s="6"/>
-    </row>
-    <row r="25" s="2" customFormat="1" spans="6:6">
-      <c r="F25" s="6"/>
-    </row>
-    <row r="26" s="2" customFormat="1" spans="6:6">
-      <c r="F26" s="6"/>
-    </row>
-    <row r="27" s="2" customFormat="1" spans="6:6">
-      <c r="F27" s="6"/>
-    </row>
-    <row r="28" s="2" customFormat="1" spans="6:6">
-      <c r="F28" s="6"/>
-    </row>
-    <row r="29" s="2" customFormat="1" spans="6:6">
-      <c r="F29" s="6"/>
-    </row>
-    <row r="30" s="2" customFormat="1" spans="6:6">
-      <c r="F30" s="6"/>
-    </row>
-    <row r="31" s="2" customFormat="1" spans="6:6">
-      <c r="F31" s="6"/>
-    </row>
-    <row r="32" s="2" customFormat="1" spans="6:6">
-      <c r="F32" s="6"/>
-    </row>
-    <row r="33" s="2" customFormat="1" spans="6:6">
-      <c r="F33" s="6"/>
-    </row>
-    <row r="34" s="2" customFormat="1" spans="6:6">
-      <c r="F34" s="6"/>
-    </row>
-    <row r="35" s="2" customFormat="1" spans="6:6">
-      <c r="F35" s="6"/>
-    </row>
-    <row r="36" s="2" customFormat="1" spans="6:6">
-      <c r="F36" s="6"/>
-    </row>
-    <row r="37" s="2" customFormat="1" spans="6:6">
-      <c r="F37" s="6"/>
-    </row>
-    <row r="38" s="2" customFormat="1" spans="6:6">
-      <c r="F38" s="6"/>
-    </row>
-    <row r="39" s="2" customFormat="1" spans="6:6">
-      <c r="F39" s="6"/>
-    </row>
-    <row r="40" s="2" customFormat="1" spans="6:6">
-      <c r="F40" s="6"/>
-    </row>
-    <row r="41" s="2" customFormat="1" spans="6:6">
-      <c r="F41" s="6"/>
-    </row>
-    <row r="42" s="2" customFormat="1" spans="6:6">
-      <c r="F42" s="6"/>
-    </row>
-    <row r="43" s="2" customFormat="1" spans="6:6">
-      <c r="F43" s="6"/>
-    </row>
-    <row r="44" s="2" customFormat="1" spans="6:6">
-      <c r="F44" s="6"/>
-    </row>
-    <row r="45" s="2" customFormat="1" spans="6:6">
-      <c r="F45" s="6"/>
-    </row>
-    <row r="46" s="2" customFormat="1" spans="6:6">
-      <c r="F46" s="6"/>
-    </row>
-    <row r="47" s="2" customFormat="1" spans="6:6">
-      <c r="F47" s="6"/>
-    </row>
-    <row r="48" s="2" customFormat="1" spans="6:6">
-      <c r="F48" s="6"/>
-    </row>
-    <row r="49" s="2" customFormat="1" spans="6:6">
-      <c r="F49" s="6"/>
-    </row>
-    <row r="50" s="2" customFormat="1" spans="6:6">
-      <c r="F50" s="6"/>
-    </row>
-    <row r="51" s="2" customFormat="1" spans="6:6">
-      <c r="F51" s="6"/>
-    </row>
-    <row r="52" s="2" customFormat="1" spans="6:6">
-      <c r="F52" s="6"/>
-    </row>
-    <row r="53" s="2" customFormat="1" spans="6:6">
-      <c r="F53" s="6"/>
-    </row>
-    <row r="54" s="2" customFormat="1" spans="6:6">
-      <c r="F54" s="6"/>
-    </row>
-    <row r="55" s="2" customFormat="1" spans="6:6">
-      <c r="F55" s="6"/>
-    </row>
-    <row r="56" s="2" customFormat="1"/>
-    <row r="57" s="2" customFormat="1"/>
-    <row r="58" s="2" customFormat="1"/>
-    <row r="59" s="2" customFormat="1"/>
-    <row r="60" s="2" customFormat="1"/>
-    <row r="61" s="2" customFormat="1"/>
-    <row r="62" s="2" customFormat="1"/>
-    <row r="63" s="2" customFormat="1"/>
-    <row r="64" s="2" customFormat="1"/>
-    <row r="65" s="2" customFormat="1"/>
-    <row r="66" s="2" customFormat="1"/>
-    <row r="67" s="2" customFormat="1"/>
-    <row r="68" s="2" customFormat="1"/>
-    <row r="69" s="2" customFormat="1"/>
-    <row r="70" s="2" customFormat="1"/>
-    <row r="71" s="2" customFormat="1"/>
-    <row r="72" s="2" customFormat="1"/>
-    <row r="73" s="2" customFormat="1"/>
-    <row r="74" s="2" customFormat="1"/>
-    <row r="75" s="2" customFormat="1"/>
-    <row r="76" s="2" customFormat="1"/>
-    <row r="77" s="2" customFormat="1"/>
-    <row r="78" s="2" customFormat="1"/>
-    <row r="79" s="2" customFormat="1"/>
-    <row r="80" s="2" customFormat="1"/>
-    <row r="81" s="2" customFormat="1"/>
-    <row r="82" s="2" customFormat="1"/>
-    <row r="83" s="2" customFormat="1"/>
-    <row r="84" s="2" customFormat="1"/>
-    <row r="85" s="2" customFormat="1"/>
-    <row r="86" s="2" customFormat="1"/>
-    <row r="87" s="2" customFormat="1"/>
-    <row r="88" s="2" customFormat="1"/>
-    <row r="89" s="2" customFormat="1"/>
-    <row r="90" s="2" customFormat="1"/>
-    <row r="91" s="2" customFormat="1"/>
-    <row r="92" s="2" customFormat="1"/>
-    <row r="93" s="2" customFormat="1"/>
-    <row r="94" s="2" customFormat="1"/>
-    <row r="95" s="2" customFormat="1"/>
-    <row r="96" s="2" customFormat="1"/>
-    <row r="97" s="2" customFormat="1"/>
-    <row r="98" s="2" customFormat="1"/>
-    <row r="99" s="2" customFormat="1"/>
-    <row r="100" s="2" customFormat="1"/>
-    <row r="101" s="2" customFormat="1"/>
-    <row r="102" s="2" customFormat="1"/>
-    <row r="103" s="2" customFormat="1"/>
-    <row r="104" s="2" customFormat="1"/>
-    <row r="105" s="2" customFormat="1"/>
-    <row r="106" s="2" customFormat="1"/>
-    <row r="107" s="2" customFormat="1"/>
-    <row r="108" s="2" customFormat="1"/>
-    <row r="109" s="2" customFormat="1"/>
-    <row r="110" s="2" customFormat="1"/>
-    <row r="111" s="2" customFormat="1"/>
-    <row r="112" s="2" customFormat="1"/>
-    <row r="113" s="2" customFormat="1"/>
-    <row r="114" s="2" customFormat="1"/>
-    <row r="115" s="2" customFormat="1"/>
-    <row r="116" s="2" customFormat="1"/>
-    <row r="117" s="2" customFormat="1"/>
-    <row r="118" s="2" customFormat="1"/>
-    <row r="119" s="2" customFormat="1"/>
-    <row r="120" s="2" customFormat="1"/>
-    <row r="121" s="2" customFormat="1"/>
-    <row r="122" s="2" customFormat="1"/>
-    <row r="123" s="2" customFormat="1"/>
-    <row r="124" s="2" customFormat="1"/>
-    <row r="125" s="2" customFormat="1"/>
-    <row r="126" s="2" customFormat="1"/>
-    <row r="127" s="2" customFormat="1"/>
-    <row r="128" s="2" customFormat="1"/>
-    <row r="129" s="2" customFormat="1"/>
-    <row r="130" s="2" customFormat="1"/>
-    <row r="131" s="2" customFormat="1"/>
-    <row r="132" s="2" customFormat="1"/>
-    <row r="133" s="2" customFormat="1"/>
-    <row r="134" s="2" customFormat="1"/>
-    <row r="135" s="2" customFormat="1"/>
-    <row r="136" s="2" customFormat="1"/>
-    <row r="137" s="2" customFormat="1"/>
-    <row r="138" s="2" customFormat="1"/>
-    <row r="139" s="2" customFormat="1"/>
+    <row r="3" customFormat="1" s="2">
+      <c r="F3" s="6" t="n"/>
+    </row>
+    <row r="4" customFormat="1" s="2">
+      <c r="F4" s="6" t="n"/>
+    </row>
+    <row r="5" customFormat="1" s="2">
+      <c r="F5" s="6" t="n"/>
+    </row>
+    <row r="6" customFormat="1" s="2">
+      <c r="F6" s="6" t="n"/>
+    </row>
+    <row r="7" customFormat="1" s="2">
+      <c r="F7" s="6" t="n"/>
+    </row>
+    <row r="8" customFormat="1" s="2">
+      <c r="F8" s="6" t="n"/>
+    </row>
+    <row r="9" customFormat="1" s="2">
+      <c r="F9" s="6" t="n"/>
+    </row>
+    <row r="10" customFormat="1" s="2">
+      <c r="F10" s="6" t="n"/>
+    </row>
+    <row r="11" customFormat="1" s="2">
+      <c r="F11" s="6" t="n"/>
+    </row>
+    <row r="12" customFormat="1" s="2">
+      <c r="F12" s="6" t="n"/>
+    </row>
+    <row r="13" customFormat="1" s="2">
+      <c r="F13" s="6" t="n"/>
+    </row>
+    <row r="14" customFormat="1" s="2">
+      <c r="F14" s="6" t="n"/>
+    </row>
+    <row r="15" customFormat="1" s="2">
+      <c r="F15" s="6" t="n"/>
+    </row>
+    <row r="16" customFormat="1" s="2">
+      <c r="F16" s="6" t="n"/>
+    </row>
+    <row r="17" customFormat="1" s="2">
+      <c r="F17" s="6" t="n"/>
+    </row>
+    <row r="18" customFormat="1" s="2">
+      <c r="F18" s="6" t="n"/>
+    </row>
+    <row r="19" customFormat="1" s="2">
+      <c r="F19" s="6" t="n"/>
+    </row>
+    <row r="20" customFormat="1" s="2">
+      <c r="F20" s="6" t="n"/>
+    </row>
+    <row r="21" customFormat="1" s="2">
+      <c r="F21" s="6" t="n"/>
+    </row>
+    <row r="22" customFormat="1" s="2">
+      <c r="F22" s="6" t="n"/>
+    </row>
+    <row r="23" customFormat="1" s="2">
+      <c r="F23" s="6" t="n"/>
+    </row>
+    <row r="24" customFormat="1" s="2">
+      <c r="F24" s="6" t="n"/>
+    </row>
+    <row r="25" customFormat="1" s="2">
+      <c r="F25" s="6" t="n"/>
+    </row>
+    <row r="26" customFormat="1" s="2">
+      <c r="F26" s="6" t="n"/>
+    </row>
+    <row r="27" customFormat="1" s="2">
+      <c r="F27" s="6" t="n"/>
+    </row>
+    <row r="28" customFormat="1" s="2">
+      <c r="F28" s="6" t="n"/>
+    </row>
+    <row r="29" customFormat="1" s="2">
+      <c r="F29" s="6" t="n"/>
+    </row>
+    <row r="30" customFormat="1" s="2">
+      <c r="F30" s="6" t="n"/>
+    </row>
+    <row r="31" customFormat="1" s="2">
+      <c r="F31" s="6" t="n"/>
+    </row>
+    <row r="32" customFormat="1" s="2">
+      <c r="F32" s="6" t="n"/>
+    </row>
+    <row r="33" customFormat="1" s="2">
+      <c r="F33" s="6" t="n"/>
+    </row>
+    <row r="34" customFormat="1" s="2">
+      <c r="F34" s="6" t="n"/>
+    </row>
+    <row r="35" customFormat="1" s="2">
+      <c r="F35" s="6" t="n"/>
+    </row>
+    <row r="36" customFormat="1" s="2">
+      <c r="F36" s="6" t="n"/>
+    </row>
+    <row r="37" customFormat="1" s="2">
+      <c r="F37" s="6" t="n"/>
+    </row>
+    <row r="38" customFormat="1" s="2">
+      <c r="F38" s="6" t="n"/>
+    </row>
+    <row r="39" customFormat="1" s="2">
+      <c r="F39" s="6" t="n"/>
+    </row>
+    <row r="40" customFormat="1" s="2">
+      <c r="F40" s="6" t="n"/>
+    </row>
+    <row r="41" customFormat="1" s="2">
+      <c r="F41" s="6" t="n"/>
+    </row>
+    <row r="42" customFormat="1" s="2">
+      <c r="F42" s="6" t="n"/>
+    </row>
+    <row r="43" customFormat="1" s="2">
+      <c r="F43" s="6" t="n"/>
+    </row>
+    <row r="44" customFormat="1" s="2">
+      <c r="F44" s="6" t="n"/>
+    </row>
+    <row r="45" customFormat="1" s="2">
+      <c r="F45" s="6" t="n"/>
+    </row>
+    <row r="46" customFormat="1" s="2">
+      <c r="F46" s="6" t="n"/>
+    </row>
+    <row r="47" customFormat="1" s="2">
+      <c r="F47" s="6" t="n"/>
+    </row>
+    <row r="48" customFormat="1" s="2">
+      <c r="F48" s="6" t="n"/>
+    </row>
+    <row r="49" customFormat="1" s="2">
+      <c r="F49" s="6" t="n"/>
+    </row>
+    <row r="50" customFormat="1" s="2">
+      <c r="F50" s="6" t="n"/>
+    </row>
+    <row r="51" customFormat="1" s="2">
+      <c r="F51" s="6" t="n"/>
+    </row>
+    <row r="52" customFormat="1" s="2">
+      <c r="F52" s="6" t="n"/>
+    </row>
+    <row r="53" customFormat="1" s="2">
+      <c r="F53" s="6" t="n"/>
+    </row>
+    <row r="54" customFormat="1" s="2">
+      <c r="F54" s="6" t="n"/>
+    </row>
+    <row r="55" customFormat="1" s="2">
+      <c r="F55" s="6" t="n"/>
+    </row>
+    <row r="56" customFormat="1" s="2"/>
+    <row r="57" customFormat="1" s="2"/>
+    <row r="58" customFormat="1" s="2"/>
+    <row r="59" customFormat="1" s="2"/>
+    <row r="60" customFormat="1" s="2"/>
+    <row r="61" customFormat="1" s="2"/>
+    <row r="62" customFormat="1" s="2"/>
+    <row r="63" customFormat="1" s="2"/>
+    <row r="64" customFormat="1" s="2"/>
+    <row r="65" customFormat="1" s="2"/>
+    <row r="66" customFormat="1" s="2"/>
+    <row r="67" customFormat="1" s="2"/>
+    <row r="68" customFormat="1" s="2"/>
+    <row r="69" customFormat="1" s="2"/>
+    <row r="70" customFormat="1" s="2"/>
+    <row r="71" customFormat="1" s="2"/>
+    <row r="72" customFormat="1" s="2"/>
+    <row r="73" customFormat="1" s="2"/>
+    <row r="74" customFormat="1" s="2"/>
+    <row r="75" customFormat="1" s="2"/>
+    <row r="76" customFormat="1" s="2"/>
+    <row r="77" customFormat="1" s="2"/>
+    <row r="78" customFormat="1" s="2"/>
+    <row r="79" customFormat="1" s="2"/>
+    <row r="80" customFormat="1" s="2"/>
+    <row r="81" customFormat="1" s="2"/>
+    <row r="82" customFormat="1" s="2"/>
+    <row r="83" customFormat="1" s="2"/>
+    <row r="84" customFormat="1" s="2"/>
+    <row r="85" customFormat="1" s="2"/>
+    <row r="86" customFormat="1" s="2"/>
+    <row r="87" customFormat="1" s="2"/>
+    <row r="88" customFormat="1" s="2"/>
+    <row r="89" customFormat="1" s="2"/>
+    <row r="90" customFormat="1" s="2"/>
+    <row r="91" customFormat="1" s="2"/>
+    <row r="92" customFormat="1" s="2"/>
+    <row r="93" customFormat="1" s="2"/>
+    <row r="94" customFormat="1" s="2"/>
+    <row r="95" customFormat="1" s="2"/>
+    <row r="96" customFormat="1" s="2"/>
+    <row r="97" customFormat="1" s="2"/>
+    <row r="98" customFormat="1" s="2"/>
+    <row r="99" customFormat="1" s="2"/>
+    <row r="100" customFormat="1" s="2"/>
+    <row r="101" customFormat="1" s="2"/>
+    <row r="102" customFormat="1" s="2"/>
+    <row r="103" customFormat="1" s="2"/>
+    <row r="104" customFormat="1" s="2"/>
+    <row r="105" customFormat="1" s="2"/>
+    <row r="106" customFormat="1" s="2"/>
+    <row r="107" customFormat="1" s="2"/>
+    <row r="108" customFormat="1" s="2"/>
+    <row r="109" customFormat="1" s="2"/>
+    <row r="110" customFormat="1" s="2"/>
+    <row r="111" customFormat="1" s="2"/>
+    <row r="112" customFormat="1" s="2"/>
+    <row r="113" customFormat="1" s="2"/>
+    <row r="114" customFormat="1" s="2"/>
+    <row r="115" customFormat="1" s="2"/>
+    <row r="116" customFormat="1" s="2"/>
+    <row r="117" customFormat="1" s="2"/>
+    <row r="118" customFormat="1" s="2"/>
+    <row r="119" customFormat="1" s="2"/>
+    <row r="120" customFormat="1" s="2"/>
+    <row r="121" customFormat="1" s="2"/>
+    <row r="122" customFormat="1" s="2"/>
+    <row r="123" customFormat="1" s="2"/>
+    <row r="124" customFormat="1" s="2"/>
+    <row r="125" customFormat="1" s="2"/>
+    <row r="126" customFormat="1" s="2"/>
+    <row r="127" customFormat="1" s="2"/>
+    <row r="128" customFormat="1" s="2"/>
+    <row r="129" customFormat="1" s="2"/>
+    <row r="130" customFormat="1" s="2"/>
+    <row r="131" customFormat="1" s="2"/>
+    <row r="132" customFormat="1" s="2"/>
+    <row r="133" customFormat="1" s="2"/>
+    <row r="134" customFormat="1" s="2"/>
+    <row r="135" customFormat="1" s="2"/>
+    <row r="136" customFormat="1" s="2"/>
+    <row r="137" customFormat="1" s="2"/>
+    <row r="138" customFormat="1" s="2"/>
+    <row r="139" customFormat="1" s="2"/>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F4:F1048576">
+    <dataValidation sqref="F4:F1048576" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"P0,P1"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2 F3">
+    <dataValidation sqref="F2 F3" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"P0,P1,P2,P3,P4"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>